--- a/BigContest/Answer_sheet.xlsx
+++ b/BigContest/Answer_sheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PythonDataAnalytics\BigContest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -235,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +408,14 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -850,11 +858,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1238,13 +1252,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2020"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2004" workbookViewId="0">
+      <selection activeCell="C2013" sqref="C2013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="8.796875" style="1"/>
+    <col min="1" max="2" width="8.796875" style="3"/>
+    <col min="3" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -1828,7 +1843,7 @@
         <v>3774</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
@@ -3756,7 +3771,7 @@
         <v>16268</v>
       </c>
       <c r="B314" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.4">
@@ -3924,7 +3939,7 @@
         <v>17067</v>
       </c>
       <c r="B335" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.4">
@@ -5324,7 +5339,7 @@
         <v>25976</v>
       </c>
       <c r="B510" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.4">
@@ -5420,7 +5435,7 @@
         <v>26471</v>
       </c>
       <c r="B522" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.4">
@@ -5612,7 +5627,7 @@
         <v>27814</v>
       </c>
       <c r="B546" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.4">
@@ -6012,7 +6027,7 @@
         <v>30323</v>
       </c>
       <c r="B596" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.4">
@@ -6420,7 +6435,7 @@
         <v>32479</v>
       </c>
       <c r="B647" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.4">
@@ -6652,7 +6667,7 @@
         <v>34179</v>
       </c>
       <c r="B676" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.4">
@@ -7316,7 +7331,7 @@
         <v>38681</v>
       </c>
       <c r="B759" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.4">
@@ -8572,7 +8587,7 @@
         <v>46126</v>
       </c>
       <c r="B916" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.4">
@@ -9148,7 +9163,7 @@
         <v>50108</v>
       </c>
       <c r="B988" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.4">
@@ -9196,7 +9211,7 @@
         <v>50570</v>
       </c>
       <c r="B994" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.4">
@@ -9340,7 +9355,7 @@
         <v>51459</v>
       </c>
       <c r="B1012" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1013" spans="1:2" x14ac:dyDescent="0.4">
@@ -10380,7 +10395,7 @@
         <v>58885</v>
       </c>
       <c r="B1142" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1143" spans="1:2" x14ac:dyDescent="0.4">
@@ -10780,7 +10795,7 @@
         <v>61374</v>
       </c>
       <c r="B1192" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:2" x14ac:dyDescent="0.4">
@@ -10884,7 +10899,7 @@
         <v>61945</v>
       </c>
       <c r="B1205" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:2" x14ac:dyDescent="0.4">
@@ -11388,7 +11403,7 @@
         <v>64803</v>
       </c>
       <c r="B1268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:2" x14ac:dyDescent="0.4">
@@ -13268,7 +13283,7 @@
         <v>75808</v>
       </c>
       <c r="B1503" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504" spans="1:2" x14ac:dyDescent="0.4">
@@ -13604,7 +13619,7 @@
         <v>78066</v>
       </c>
       <c r="B1545" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1546" spans="1:2" x14ac:dyDescent="0.4">
@@ -13932,7 +13947,7 @@
         <v>80311</v>
       </c>
       <c r="B1586" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1587" spans="1:2" x14ac:dyDescent="0.4">
@@ -15284,7 +15299,7 @@
         <v>87739</v>
       </c>
       <c r="B1755" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1756" spans="1:2" x14ac:dyDescent="0.4">
@@ -16836,7 +16851,7 @@
         <v>98005</v>
       </c>
       <c r="B1949" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1950" spans="1:2" x14ac:dyDescent="0.4">
